--- a/results/PO.xlsx
+++ b/results/PO.xlsx
@@ -656,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -954,6 +954,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -968,30 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1038,7 +1038,9 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,7 +1051,9 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,9 +1074,16 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1501,10 +1512,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -1531,8 +1542,7 @@
     <col width="9.1640625" customWidth="1" style="21" min="20" max="16384"/>
   </cols>
   <sheetData>
-    <row r="0" ht="20" customHeight="1"/>
-    <row r="1" ht="20" customHeight="1">
+    <row r="1" ht="35" customHeight="1">
       <c r="B1" s="3" t="inlineStr">
         <is>
           <t>ITE, Inc.</t>
@@ -1563,7 +1573,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="20" customFormat="1" customHeight="1" s="2">
+    <row r="2" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="B2" s="19" t="inlineStr">
         <is>
           <t>P.O. Box 322</t>
@@ -1581,18 +1591,18 @@
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="5" t="n"/>
       <c r="O2" s="5" t="n"/>
-      <c r="P2" s="121" t="inlineStr">
+      <c r="P2" s="129" t="inlineStr">
         <is>
           <t xml:space="preserve">订单号(NO.): </t>
         </is>
       </c>
-      <c r="R2" s="124" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="20" customFormat="1" customHeight="1" s="2">
+      <c r="R2" s="132" t="inlineStr">
+        <is>
+          <t>bbbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="B3" s="19" t="inlineStr">
         <is>
           <t>SHAWNEE, OK 74802</t>
@@ -1611,14 +1621,14 @@
       <c r="M3" s="1" t="n"/>
       <c r="N3" s="6" t="n"/>
       <c r="O3" s="6" t="n"/>
-      <c r="P3" s="121" t="inlineStr">
+      <c r="P3" s="129" t="inlineStr">
         <is>
           <t>参考号(REF. NO.):</t>
         </is>
       </c>
-      <c r="R3" s="124" t="n"/>
-    </row>
-    <row r="4" ht="20" customFormat="1" customHeight="1" s="2">
+      <c r="R3" s="132" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customFormat="1" customHeight="1" s="2">
       <c r="B4" s="19" t="inlineStr">
         <is>
           <t>EMAIL: itetulsa@hotmail.com</t>
@@ -1643,7 +1653,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customFormat="1" customHeight="1" s="2">
+    <row r="5" customFormat="1" s="2">
       <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
@@ -1659,7 +1669,7 @@
       <c r="N5" s="1" t="n"/>
       <c r="O5" s="1" t="n"/>
     </row>
-    <row r="6" ht="20" customFormat="1" customHeight="1" s="2">
+    <row r="6" ht="12.75" customFormat="1" customHeight="1" s="2">
       <c r="B6" s="19" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
@@ -1680,7 +1690,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="20" customFormat="1" customHeight="1" s="2" thickBot="1">
+    <row r="7" ht="18" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="B7" s="4" t="n"/>
       <c r="C7" s="4" t="n"/>
       <c r="D7" s="4" t="n"/>
@@ -1696,7 +1706,7 @@
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="1" t="n"/>
     </row>
-    <row r="8" ht="20" customFormat="1" customHeight="1" s="22">
+    <row r="8" ht="16" customFormat="1" customHeight="1" s="22">
       <c r="B8" s="67" t="inlineStr">
         <is>
           <t>致(TO)：</t>
@@ -1728,7 +1738,7 @@
       <c r="R8" s="92" t="n"/>
       <c r="S8" s="94" t="n"/>
     </row>
-    <row r="9" ht="20" customFormat="1" customHeight="1" s="25">
+    <row r="9" ht="16" customFormat="1" customHeight="1" s="25">
       <c r="B9" s="59" t="n"/>
       <c r="C9" s="60" t="n"/>
       <c r="D9" s="60" t="n"/>
@@ -1737,7 +1747,7 @@
       <c r="G9" s="60" t="n"/>
       <c r="H9" s="60" t="n"/>
       <c r="I9" s="107" t="n"/>
-      <c r="J9" s="125" t="n"/>
+      <c r="J9" s="133" t="n"/>
       <c r="K9" s="99" t="n"/>
       <c r="L9" s="46" t="inlineStr">
         <is>
@@ -1750,16 +1760,16 @@
       <c r="P9" s="138" t="n"/>
       <c r="S9" s="139" t="n"/>
     </row>
-    <row r="10" ht="20" customFormat="1" customHeight="1" s="25">
+    <row r="10" ht="16" customFormat="1" customHeight="1" s="25">
       <c r="B10" s="54" t="n"/>
-      <c r="C10" s="125" t="n"/>
-      <c r="D10" s="125" t="n"/>
-      <c r="E10" s="125" t="n"/>
-      <c r="F10" s="125" t="n"/>
-      <c r="G10" s="125" t="n"/>
-      <c r="H10" s="125" t="n"/>
+      <c r="C10" s="133" t="n"/>
+      <c r="D10" s="133" t="n"/>
+      <c r="E10" s="133" t="n"/>
+      <c r="F10" s="133" t="n"/>
+      <c r="G10" s="133" t="n"/>
+      <c r="H10" s="133" t="n"/>
       <c r="I10" s="108" t="n"/>
-      <c r="J10" s="125" t="n"/>
+      <c r="J10" s="133" t="n"/>
       <c r="K10" s="99" t="n"/>
       <c r="L10" s="49" t="inlineStr">
         <is>
@@ -1770,16 +1780,16 @@
       <c r="P10" s="138" t="n"/>
       <c r="S10" s="139" t="n"/>
     </row>
-    <row r="11" ht="20" customFormat="1" customHeight="1" s="25">
+    <row r="11" ht="16" customFormat="1" customHeight="1" s="25">
       <c r="B11" s="54" t="n"/>
-      <c r="C11" s="125" t="n"/>
-      <c r="D11" s="125" t="n"/>
-      <c r="E11" s="125" t="n"/>
-      <c r="F11" s="125" t="n"/>
-      <c r="G11" s="125" t="n"/>
-      <c r="H11" s="125" t="n"/>
+      <c r="C11" s="133" t="n"/>
+      <c r="D11" s="133" t="n"/>
+      <c r="E11" s="133" t="n"/>
+      <c r="F11" s="133" t="n"/>
+      <c r="G11" s="133" t="n"/>
+      <c r="H11" s="133" t="n"/>
       <c r="I11" s="108" t="n"/>
-      <c r="J11" s="125" t="n"/>
+      <c r="J11" s="133" t="n"/>
       <c r="K11" s="99" t="n"/>
       <c r="L11" s="49" t="inlineStr">
         <is>
@@ -1790,7 +1800,7 @@
       <c r="P11" s="138" t="n"/>
       <c r="S11" s="139" t="n"/>
     </row>
-    <row r="12" ht="20" customFormat="1" customHeight="1" s="25" thickBot="1">
+    <row r="12" ht="17" customFormat="1" customHeight="1" s="25" thickBot="1">
       <c r="B12" s="56" t="n"/>
       <c r="C12" s="57" t="n"/>
       <c r="D12" s="57" t="n"/>
@@ -1799,7 +1809,7 @@
       <c r="G12" s="57" t="n"/>
       <c r="H12" s="57" t="n"/>
       <c r="I12" s="109" t="n"/>
-      <c r="J12" s="125" t="n"/>
+      <c r="J12" s="133" t="n"/>
       <c r="K12" s="99" t="n"/>
       <c r="L12" s="51" t="inlineStr">
         <is>
@@ -1814,10 +1824,10 @@
       <c r="R12" s="52" t="n"/>
       <c r="S12" s="141" t="n"/>
     </row>
-    <row r="13" ht="20" customHeight="1" thickBot="1">
+    <row r="13" ht="7" customHeight="1" thickBot="1">
       <c r="C13" s="26" t="n"/>
     </row>
-    <row r="14" ht="20" customFormat="1" customHeight="1" s="74">
+    <row r="14" ht="22.5" customFormat="1" customHeight="1" s="74">
       <c r="B14" s="73" t="inlineStr">
         <is>
           <t>行号</t>
@@ -1909,7 +1919,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="20" customFormat="1" customHeight="1" s="61">
+    <row r="15" ht="16" customFormat="1" customHeight="1" s="61">
       <c r="B15" s="75" t="inlineStr">
         <is>
           <t>LN</t>
@@ -1955,7 +1965,7 @@
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="K15" s="127" t="inlineStr">
+      <c r="K15" s="122" t="inlineStr">
         <is>
           <t>MATERIAL</t>
         </is>
@@ -2001,7 +2011,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="20" customFormat="1" customHeight="1" s="61">
+    <row r="16" ht="16" customFormat="1" customHeight="1" s="61">
       <c r="B16" s="76" t="n"/>
       <c r="C16" s="62" t="n"/>
       <c r="D16" s="62" t="n"/>
@@ -2076,1065 +2086,286 @@
         </is>
       </c>
       <c r="C17" s="150" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="151" t="n"/>
       <c r="E17" s="150" t="inlineStr">
         <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F17" s="151" t="n"/>
-      <c r="G17" s="151" t="n"/>
+          <t>22002</t>
+        </is>
+      </c>
+      <c r="F17" s="150" t="inlineStr">
+        <is>
+          <t>22003</t>
+        </is>
+      </c>
+      <c r="G17" s="150" t="inlineStr"/>
       <c r="H17" s="151" t="n"/>
       <c r="I17" s="151" t="n"/>
       <c r="J17" s="150" t="inlineStr">
         <is>
+          <t>INSERT</t>
+        </is>
+      </c>
+      <c r="K17" s="150" t="inlineStr">
+        <is>
+          <t>DI</t>
+        </is>
+      </c>
+      <c r="L17" s="150" t="inlineStr">
+        <is>
+          <t>Sea</t>
+        </is>
+      </c>
+      <c r="M17" s="152" t="n">
+        <v>45533</v>
+      </c>
+      <c r="N17" s="150" t="n"/>
+      <c r="O17" s="150" t="n"/>
+      <c r="P17" s="151" t="n"/>
+      <c r="Q17" s="150" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="R17" s="151" t="n"/>
+      <c r="S17" s="153" t="n">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="B18" s="154" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K17" s="151" t="n"/>
-      <c r="L17" s="150" t="inlineStr">
+      <c r="C18" s="155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="156" t="n"/>
+      <c r="E18" s="155" t="inlineStr">
+        <is>
+          <t>22002</t>
+        </is>
+      </c>
+      <c r="F18" s="155" t="inlineStr">
+        <is>
+          <t>22003</t>
+        </is>
+      </c>
+      <c r="G18" s="155" t="inlineStr"/>
+      <c r="H18" s="156" t="n"/>
+      <c r="I18" s="156" t="n"/>
+      <c r="J18" s="155" t="inlineStr">
+        <is>
+          <t>INSERT</t>
+        </is>
+      </c>
+      <c r="K18" s="155" t="inlineStr">
+        <is>
+          <t>DI</t>
+        </is>
+      </c>
+      <c r="L18" s="155" t="inlineStr">
         <is>
           <t>Sea</t>
         </is>
       </c>
-      <c r="M17" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N17" s="150" t="n"/>
-      <c r="O17" s="151" t="n"/>
-      <c r="P17" s="151" t="n"/>
-      <c r="Q17" s="151" t="n"/>
-      <c r="R17" s="151" t="n"/>
-      <c r="S17" s="153" t="n"/>
-    </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="B18" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="151" t="n"/>
-      <c r="E18" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F18" s="151" t="n"/>
-      <c r="G18" s="151" t="n"/>
-      <c r="H18" s="151" t="n"/>
-      <c r="I18" s="151" t="n"/>
-      <c r="J18" s="150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K18" s="151" t="n"/>
-      <c r="L18" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M18" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N18" s="150" t="n"/>
-      <c r="O18" s="151" t="n"/>
-      <c r="P18" s="151" t="n"/>
-      <c r="Q18" s="151" t="n"/>
-      <c r="R18" s="151" t="n"/>
-      <c r="S18" s="153" t="n"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" thickBot="1">
-      <c r="B19" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="151" t="n"/>
-      <c r="E19" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F19" s="151" t="n"/>
-      <c r="G19" s="151" t="n"/>
-      <c r="H19" s="151" t="n"/>
-      <c r="I19" s="151" t="n"/>
-      <c r="J19" s="150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K19" s="151" t="n"/>
-      <c r="L19" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M19" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N19" s="150" t="n"/>
-      <c r="O19" s="151" t="n"/>
-      <c r="P19" s="151" t="n"/>
-      <c r="Q19" s="151" t="n"/>
-      <c r="R19" s="151" t="n"/>
-      <c r="S19" s="153" t="n"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" thickTop="1">
-      <c r="B20" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="151" t="n"/>
-      <c r="E20" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F20" s="151" t="n"/>
-      <c r="G20" s="151" t="n"/>
-      <c r="H20" s="151" t="n"/>
-      <c r="I20" s="151" t="n"/>
-      <c r="J20" s="150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K20" s="151" t="n"/>
-      <c r="L20" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M20" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N20" s="150" t="n"/>
-      <c r="O20" s="151" t="n"/>
-      <c r="P20" s="151" t="n"/>
-      <c r="Q20" s="151" t="n"/>
-      <c r="R20" s="151" t="n"/>
-      <c r="S20" s="153" t="n"/>
-    </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="B21" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="151" t="n"/>
-      <c r="E21" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F21" s="151" t="n"/>
-      <c r="G21" s="151" t="n"/>
-      <c r="H21" s="151" t="n"/>
-      <c r="I21" s="151" t="n"/>
-      <c r="J21" s="150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K21" s="151" t="n"/>
-      <c r="L21" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M21" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N21" s="150" t="n"/>
-      <c r="O21" s="151" t="n"/>
-      <c r="P21" s="151" t="n"/>
-      <c r="Q21" s="151" t="n"/>
-      <c r="R21" s="151" t="n"/>
-      <c r="S21" s="153" t="n"/>
+      <c r="M18" s="157" t="n">
+        <v>45533</v>
+      </c>
+      <c r="N18" s="155" t="n"/>
+      <c r="O18" s="155" t="n"/>
+      <c r="P18" s="156" t="n"/>
+      <c r="Q18" s="155" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="R18" s="156" t="n"/>
+      <c r="S18" s="158" t="n">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="1" thickBot="1">
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="14" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
+      <c r="G19" s="8" t="n"/>
+      <c r="H19" s="8" t="n"/>
+      <c r="I19" s="8" t="n"/>
+      <c r="J19" s="10" t="n"/>
+      <c r="K19" s="101" t="n"/>
+      <c r="L19" s="9" t="n"/>
+      <c r="M19" s="159" t="n"/>
+      <c r="N19" s="159" t="n"/>
+      <c r="O19" s="31" t="n"/>
+      <c r="P19" s="160" t="n"/>
+      <c r="Q19" s="160" t="n"/>
+      <c r="R19" s="160" t="n"/>
+      <c r="S19" s="161" t="n"/>
+    </row>
+    <row r="20" ht="16" customHeight="1" thickTop="1">
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="14" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
+      <c r="G20" s="8" t="n"/>
+      <c r="H20" s="8" t="n"/>
+      <c r="I20" s="8" t="n"/>
+      <c r="J20" s="10" t="n"/>
+      <c r="K20" s="101" t="n"/>
+      <c r="L20" s="9" t="n"/>
+      <c r="M20" s="159" t="n"/>
+      <c r="N20" s="159" t="n"/>
+      <c r="O20" s="31" t="n"/>
+      <c r="P20" s="160" t="n"/>
+      <c r="Q20" s="160" t="n"/>
+      <c r="R20" s="160" t="n"/>
+      <c r="S20" s="161" t="n"/>
+    </row>
+    <row r="21">
+      <c r="M21" s="17" t="n"/>
+      <c r="N21" s="33" t="n"/>
+      <c r="O21" s="33" t="n"/>
+      <c r="P21" s="79" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="Q21" s="36" t="inlineStr">
+        <is>
+          <t>( TOTAL)</t>
+        </is>
+      </c>
+      <c r="R21" s="162" t="n"/>
+      <c r="S21" s="117" t="n"/>
     </row>
     <row r="22" ht="14" customHeight="1">
-      <c r="B22" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C22" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="151" t="n"/>
-      <c r="E22" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F22" s="151" t="n"/>
-      <c r="G22" s="151" t="n"/>
-      <c r="H22" s="151" t="n"/>
-      <c r="I22" s="151" t="n"/>
-      <c r="J22" s="150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K22" s="151" t="n"/>
-      <c r="L22" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M22" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N22" s="150" t="n"/>
-      <c r="O22" s="151" t="n"/>
-      <c r="P22" s="151" t="n"/>
-      <c r="Q22" s="151" t="n"/>
-      <c r="R22" s="151" t="n"/>
-      <c r="S22" s="153" t="n"/>
+      <c r="B22" s="85" t="inlineStr">
+        <is>
+          <t>说明（NOTE）:</t>
+        </is>
+      </c>
+      <c r="C22" s="86" t="n"/>
+      <c r="D22" s="86" t="n"/>
+      <c r="E22" s="86" t="n"/>
+      <c r="F22" s="87" t="n"/>
+      <c r="G22" s="87" t="n"/>
+      <c r="H22" s="87" t="n"/>
+      <c r="I22" s="87" t="n"/>
+      <c r="J22" s="88" t="n"/>
+      <c r="K22" s="102" t="n"/>
+      <c r="L22" s="89" t="n"/>
+      <c r="M22" s="90" t="n"/>
+      <c r="N22" s="33" t="n"/>
+      <c r="O22" s="33" t="n"/>
+      <c r="P22" s="163" t="n"/>
+      <c r="Q22" s="43" t="n"/>
+      <c r="R22" s="43" t="n"/>
+      <c r="S22" s="44" t="n"/>
     </row>
     <row r="23" ht="14" customFormat="1" customHeight="1" s="2" thickBot="1">
-      <c r="B23" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C23" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="151" t="n"/>
-      <c r="E23" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F23" s="151" t="n"/>
-      <c r="G23" s="151" t="n"/>
-      <c r="H23" s="151" t="n"/>
-      <c r="I23" s="151" t="n"/>
-      <c r="J23" s="150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K23" s="151" t="n"/>
-      <c r="L23" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M23" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N23" s="150" t="n"/>
-      <c r="O23" s="151" t="n"/>
-      <c r="P23" s="151" t="n"/>
-      <c r="Q23" s="151" t="n"/>
-      <c r="R23" s="151" t="n"/>
-      <c r="S23" s="153" t="n"/>
+      <c r="B23" s="110" t="n"/>
+      <c r="C23" s="111" t="n"/>
+      <c r="D23" s="111" t="n"/>
+      <c r="E23" s="111" t="n"/>
+      <c r="F23" s="111" t="n"/>
+      <c r="G23" s="111" t="n"/>
+      <c r="H23" s="111" t="n"/>
+      <c r="I23" s="111" t="n"/>
+      <c r="J23" s="111" t="n"/>
+      <c r="K23" s="111" t="n"/>
+      <c r="L23" s="111" t="n"/>
+      <c r="M23" s="112" t="n"/>
     </row>
     <row r="24" ht="16" customFormat="1" customHeight="1" s="2">
-      <c r="B24" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C24" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="151" t="n"/>
-      <c r="E24" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F24" s="151" t="n"/>
-      <c r="G24" s="151" t="n"/>
-      <c r="H24" s="151" t="n"/>
-      <c r="I24" s="151" t="n"/>
-      <c r="J24" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K24" s="151" t="n"/>
-      <c r="L24" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M24" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N24" s="150" t="n"/>
-      <c r="O24" s="151" t="n"/>
-      <c r="P24" s="151" t="n"/>
-      <c r="Q24" s="151" t="n"/>
-      <c r="R24" s="151" t="n"/>
-      <c r="S24" s="153" t="n"/>
+      <c r="B24" s="110" t="n"/>
+      <c r="C24" s="111" t="n"/>
+      <c r="D24" s="111" t="n"/>
+      <c r="E24" s="111" t="n"/>
+      <c r="F24" s="111" t="n"/>
+      <c r="G24" s="111" t="n"/>
+      <c r="H24" s="111" t="n"/>
+      <c r="I24" s="111" t="n"/>
+      <c r="J24" s="111" t="n"/>
+      <c r="K24" s="111" t="n"/>
+      <c r="L24" s="111" t="n"/>
+      <c r="M24" s="112" t="n"/>
+      <c r="P24" s="83" t="inlineStr">
+        <is>
+          <t>订单签发人 (BY):</t>
+        </is>
+      </c>
+      <c r="Q24" s="164" t="n"/>
+      <c r="R24" s="165" t="inlineStr">
+        <is>
+          <t>Tim Qi</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="14" customHeight="1">
-      <c r="B25" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C25" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="151" t="n"/>
-      <c r="E25" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F25" s="151" t="n"/>
-      <c r="G25" s="151" t="n"/>
-      <c r="H25" s="151" t="n"/>
-      <c r="I25" s="151" t="n"/>
-      <c r="J25" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K25" s="151" t="n"/>
-      <c r="L25" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M25" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N25" s="150" t="n"/>
-      <c r="O25" s="151" t="n"/>
-      <c r="P25" s="151" t="n"/>
-      <c r="Q25" s="151" t="n"/>
-      <c r="R25" s="151" t="n"/>
-      <c r="S25" s="153" t="n"/>
+      <c r="B25" s="113" t="n"/>
+      <c r="C25" s="114" t="n"/>
+      <c r="D25" s="114" t="n"/>
+      <c r="E25" s="114" t="n"/>
+      <c r="F25" s="114" t="n"/>
+      <c r="G25" s="114" t="n"/>
+      <c r="H25" s="114" t="n"/>
+      <c r="I25" s="114" t="n"/>
+      <c r="J25" s="114" t="n"/>
+      <c r="K25" s="114" t="n"/>
+      <c r="L25" s="114" t="n"/>
+      <c r="M25" s="115" t="n"/>
+      <c r="N25" s="19" t="n"/>
+      <c r="O25" s="19" t="n"/>
+      <c r="Q25" s="166" t="n"/>
+      <c r="R25" s="167" t="n"/>
+      <c r="S25" s="168" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C26" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="151" t="n"/>
-      <c r="E26" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F26" s="151" t="n"/>
-      <c r="G26" s="151" t="n"/>
-      <c r="H26" s="151" t="n"/>
-      <c r="I26" s="151" t="n"/>
-      <c r="J26" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K26" s="151" t="n"/>
-      <c r="L26" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M26" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N26" s="150" t="n"/>
-      <c r="O26" s="151" t="n"/>
-      <c r="P26" s="151" t="n"/>
-      <c r="Q26" s="151" t="n"/>
-      <c r="R26" s="151" t="n"/>
-      <c r="S26" s="153" t="n"/>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" s="24" t="n"/>
+      <c r="G26" s="24" t="n"/>
+      <c r="H26" s="24" t="n"/>
+      <c r="I26" s="24" t="n"/>
+      <c r="J26" s="4" t="n"/>
+      <c r="K26" s="103" t="n"/>
+      <c r="L26" s="18" t="n"/>
+      <c r="M26" s="18" t="n"/>
+      <c r="N26" s="18" t="n"/>
+      <c r="O26" s="18" t="n"/>
+      <c r="P26" s="4" t="n"/>
+      <c r="Q26" s="169" t="n"/>
+      <c r="R26" s="169" t="n"/>
+      <c r="S26" s="170" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C27" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="151" t="n"/>
-      <c r="E27" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F27" s="151" t="n"/>
-      <c r="G27" s="151" t="n"/>
-      <c r="H27" s="151" t="n"/>
-      <c r="I27" s="151" t="n"/>
-      <c r="J27" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K27" s="151" t="n"/>
-      <c r="L27" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M27" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N27" s="150" t="n"/>
-      <c r="O27" s="151" t="n"/>
-      <c r="P27" s="151" t="n"/>
-      <c r="Q27" s="151" t="n"/>
-      <c r="R27" s="151" t="n"/>
-      <c r="S27" s="153" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C28" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="151" t="n"/>
-      <c r="E28" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F28" s="151" t="n"/>
-      <c r="G28" s="151" t="n"/>
-      <c r="H28" s="151" t="n"/>
-      <c r="I28" s="151" t="n"/>
-      <c r="J28" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K28" s="151" t="n"/>
-      <c r="L28" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M28" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N28" s="150" t="n"/>
-      <c r="O28" s="151" t="n"/>
-      <c r="P28" s="151" t="n"/>
-      <c r="Q28" s="151" t="n"/>
-      <c r="R28" s="151" t="n"/>
-      <c r="S28" s="153" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C29" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="151" t="n"/>
-      <c r="E29" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F29" s="151" t="n"/>
-      <c r="G29" s="151" t="n"/>
-      <c r="H29" s="151" t="n"/>
-      <c r="I29" s="151" t="n"/>
-      <c r="J29" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K29" s="151" t="n"/>
-      <c r="L29" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M29" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N29" s="150" t="n"/>
-      <c r="O29" s="151" t="n"/>
-      <c r="P29" s="151" t="n"/>
-      <c r="Q29" s="151" t="n"/>
-      <c r="R29" s="151" t="n"/>
-      <c r="S29" s="153" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C30" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="151" t="n"/>
-      <c r="E30" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F30" s="151" t="n"/>
-      <c r="G30" s="151" t="n"/>
-      <c r="H30" s="151" t="n"/>
-      <c r="I30" s="151" t="n"/>
-      <c r="J30" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K30" s="151" t="n"/>
-      <c r="L30" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M30" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N30" s="150" t="n"/>
-      <c r="O30" s="151" t="n"/>
-      <c r="P30" s="151" t="n"/>
-      <c r="Q30" s="151" t="n"/>
-      <c r="R30" s="151" t="n"/>
-      <c r="S30" s="153" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C31" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="151" t="n"/>
-      <c r="E31" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F31" s="151" t="n"/>
-      <c r="G31" s="151" t="n"/>
-      <c r="H31" s="151" t="n"/>
-      <c r="I31" s="151" t="n"/>
-      <c r="J31" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K31" s="151" t="n"/>
-      <c r="L31" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M31" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N31" s="150" t="n"/>
-      <c r="O31" s="151" t="n"/>
-      <c r="P31" s="151" t="n"/>
-      <c r="Q31" s="151" t="n"/>
-      <c r="R31" s="151" t="n"/>
-      <c r="S31" s="153" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C32" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="151" t="n"/>
-      <c r="E32" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F32" s="151" t="n"/>
-      <c r="G32" s="151" t="n"/>
-      <c r="H32" s="151" t="n"/>
-      <c r="I32" s="151" t="n"/>
-      <c r="J32" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K32" s="151" t="n"/>
-      <c r="L32" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M32" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N32" s="150" t="n"/>
-      <c r="O32" s="151" t="n"/>
-      <c r="P32" s="151" t="n"/>
-      <c r="Q32" s="151" t="n"/>
-      <c r="R32" s="151" t="n"/>
-      <c r="S32" s="153" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C33" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="151" t="n"/>
-      <c r="E33" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F33" s="151" t="n"/>
-      <c r="G33" s="151" t="n"/>
-      <c r="H33" s="151" t="n"/>
-      <c r="I33" s="151" t="n"/>
-      <c r="J33" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K33" s="151" t="n"/>
-      <c r="L33" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M33" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N33" s="150" t="n"/>
-      <c r="O33" s="151" t="n"/>
-      <c r="P33" s="151" t="n"/>
-      <c r="Q33" s="151" t="n"/>
-      <c r="R33" s="151" t="n"/>
-      <c r="S33" s="153" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C34" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="151" t="n"/>
-      <c r="E34" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F34" s="151" t="n"/>
-      <c r="G34" s="151" t="n"/>
-      <c r="H34" s="151" t="n"/>
-      <c r="I34" s="151" t="n"/>
-      <c r="J34" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K34" s="151" t="n"/>
-      <c r="L34" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M34" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N34" s="150" t="n"/>
-      <c r="O34" s="151" t="n"/>
-      <c r="P34" s="151" t="n"/>
-      <c r="Q34" s="151" t="n"/>
-      <c r="R34" s="151" t="n"/>
-      <c r="S34" s="153" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C35" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="151" t="n"/>
-      <c r="E35" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F35" s="151" t="n"/>
-      <c r="G35" s="151" t="n"/>
-      <c r="H35" s="151" t="n"/>
-      <c r="I35" s="151" t="n"/>
-      <c r="J35" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K35" s="151" t="n"/>
-      <c r="L35" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M35" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N35" s="150" t="n"/>
-      <c r="O35" s="151" t="n"/>
-      <c r="P35" s="151" t="n"/>
-      <c r="Q35" s="151" t="n"/>
-      <c r="R35" s="151" t="n"/>
-      <c r="S35" s="153" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C36" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="151" t="n"/>
-      <c r="E36" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F36" s="151" t="n"/>
-      <c r="G36" s="151" t="n"/>
-      <c r="H36" s="151" t="n"/>
-      <c r="I36" s="151" t="n"/>
-      <c r="J36" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K36" s="151" t="n"/>
-      <c r="L36" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M36" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N36" s="150" t="n"/>
-      <c r="O36" s="151" t="n"/>
-      <c r="P36" s="151" t="n"/>
-      <c r="Q36" s="151" t="n"/>
-      <c r="R36" s="151" t="n"/>
-      <c r="S36" s="153" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C37" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="151" t="n"/>
-      <c r="E37" s="150" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F37" s="151" t="n"/>
-      <c r="G37" s="151" t="n"/>
-      <c r="H37" s="151" t="n"/>
-      <c r="I37" s="151" t="n"/>
-      <c r="J37" s="150" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K37" s="151" t="n"/>
-      <c r="L37" s="150" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M37" s="152" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N37" s="150" t="n"/>
-      <c r="O37" s="151" t="n"/>
-      <c r="P37" s="151" t="n"/>
-      <c r="Q37" s="151" t="n"/>
-      <c r="R37" s="151" t="n"/>
-      <c r="S37" s="153" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C38" s="155" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="156" t="n"/>
-      <c r="E38" s="155" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="F38" s="156" t="n"/>
-      <c r="G38" s="156" t="n"/>
-      <c r="H38" s="156" t="n"/>
-      <c r="I38" s="156" t="n"/>
-      <c r="J38" s="155" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K38" s="156" t="n"/>
-      <c r="L38" s="155" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-      <c r="M38" s="157" t="n">
-        <v>45509</v>
-      </c>
-      <c r="N38" s="155" t="n"/>
-      <c r="O38" s="156" t="n"/>
-      <c r="P38" s="156" t="n"/>
-      <c r="Q38" s="156" t="n"/>
-      <c r="R38" s="156" t="n"/>
-      <c r="S38" s="158" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="13" t="n"/>
-      <c r="C39" s="14" t="n"/>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="15" t="n"/>
-      <c r="F39" s="15" t="n"/>
-      <c r="G39" s="8" t="n"/>
-      <c r="H39" s="8" t="n"/>
-      <c r="I39" s="8" t="n"/>
-      <c r="J39" s="10" t="n"/>
-      <c r="K39" s="101" t="n"/>
-      <c r="L39" s="9" t="n"/>
-      <c r="M39" s="159" t="n"/>
-      <c r="N39" s="159" t="n"/>
-      <c r="O39" s="31" t="n"/>
-      <c r="P39" s="160" t="n"/>
-      <c r="Q39" s="160" t="n"/>
-      <c r="R39" s="160" t="n"/>
-      <c r="S39" s="161" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="13" t="n"/>
-      <c r="C40" s="14" t="n"/>
-      <c r="D40" s="9" t="n"/>
-      <c r="E40" s="15" t="n"/>
-      <c r="F40" s="15" t="n"/>
-      <c r="G40" s="8" t="n"/>
-      <c r="H40" s="8" t="n"/>
-      <c r="I40" s="8" t="n"/>
-      <c r="J40" s="10" t="n"/>
-      <c r="K40" s="101" t="n"/>
-      <c r="L40" s="9" t="n"/>
-      <c r="M40" s="159" t="n"/>
-      <c r="N40" s="159" t="n"/>
-      <c r="O40" s="31" t="n"/>
-      <c r="P40" s="160" t="n"/>
-      <c r="Q40" s="160" t="n"/>
-      <c r="R40" s="160" t="n"/>
-      <c r="S40" s="161" t="n"/>
-    </row>
-    <row r="41">
-      <c r="M41" s="17" t="n"/>
-      <c r="N41" s="33" t="n"/>
-      <c r="O41" s="33" t="n"/>
-      <c r="P41" s="79" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="Q41" s="36" t="inlineStr">
-        <is>
-          <t>( TOTAL)</t>
-        </is>
-      </c>
-      <c r="R41" s="162">
-        <f>SUM(#REF!)</f>
-        <v/>
-      </c>
-      <c r="S41" s="117" t="n"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="85" t="inlineStr">
-        <is>
-          <t>说明（NOTE）:</t>
-        </is>
-      </c>
-      <c r="C42" s="86" t="n"/>
-      <c r="D42" s="86" t="n"/>
-      <c r="E42" s="86" t="n"/>
-      <c r="F42" s="87" t="n"/>
-      <c r="G42" s="87" t="n"/>
-      <c r="H42" s="87" t="n"/>
-      <c r="I42" s="87" t="n"/>
-      <c r="J42" s="88" t="n"/>
-      <c r="K42" s="102" t="n"/>
-      <c r="L42" s="89" t="n"/>
-      <c r="M42" s="90" t="n"/>
-      <c r="N42" s="33" t="n"/>
-      <c r="O42" s="33" t="n"/>
-      <c r="P42" s="163" t="n"/>
-      <c r="Q42" s="43" t="n"/>
-      <c r="R42" s="43" t="n"/>
-      <c r="S42" s="44" t="n"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="110" t="n"/>
-      <c r="C43" s="111" t="n"/>
-      <c r="D43" s="111" t="n"/>
-      <c r="E43" s="111" t="n"/>
-      <c r="F43" s="111" t="n"/>
-      <c r="G43" s="111" t="n"/>
-      <c r="H43" s="111" t="n"/>
-      <c r="I43" s="111" t="n"/>
-      <c r="J43" s="111" t="n"/>
-      <c r="K43" s="111" t="n"/>
-      <c r="L43" s="111" t="n"/>
-      <c r="M43" s="112" t="n"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="110" t="n"/>
-      <c r="C44" s="111" t="n"/>
-      <c r="D44" s="111" t="n"/>
-      <c r="E44" s="111" t="n"/>
-      <c r="F44" s="111" t="n"/>
-      <c r="G44" s="111" t="n"/>
-      <c r="H44" s="111" t="n"/>
-      <c r="I44" s="111" t="n"/>
-      <c r="J44" s="111" t="n"/>
-      <c r="K44" s="111" t="n"/>
-      <c r="L44" s="111" t="n"/>
-      <c r="M44" s="112" t="n"/>
-      <c r="P44" s="83" t="inlineStr">
-        <is>
-          <t>订单签发人 (BY):</t>
-        </is>
-      </c>
-      <c r="Q44" s="164" t="n"/>
-      <c r="R44" s="165" t="inlineStr">
-        <is>
-          <t>Tim Qi</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="113" t="n"/>
-      <c r="C45" s="114" t="n"/>
-      <c r="D45" s="114" t="n"/>
-      <c r="E45" s="114" t="n"/>
-      <c r="F45" s="114" t="n"/>
-      <c r="G45" s="114" t="n"/>
-      <c r="H45" s="114" t="n"/>
-      <c r="I45" s="114" t="n"/>
-      <c r="J45" s="114" t="n"/>
-      <c r="K45" s="114" t="n"/>
-      <c r="L45" s="114" t="n"/>
-      <c r="M45" s="115" t="n"/>
-      <c r="N45" s="19" t="n"/>
-      <c r="O45" s="19" t="n"/>
-      <c r="Q45" s="166" t="n"/>
-      <c r="R45" s="118" t="n"/>
-      <c r="S45" s="119" t="n"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="4" t="n"/>
-      <c r="C46" s="4" t="n"/>
-      <c r="D46" s="4" t="n"/>
-      <c r="E46" s="4" t="n"/>
-      <c r="F46" s="24" t="n"/>
-      <c r="G46" s="24" t="n"/>
-      <c r="H46" s="24" t="n"/>
-      <c r="I46" s="24" t="n"/>
-      <c r="J46" s="4" t="n"/>
-      <c r="K46" s="103" t="n"/>
-      <c r="L46" s="18" t="n"/>
-      <c r="M46" s="18" t="n"/>
-      <c r="N46" s="18" t="n"/>
-      <c r="O46" s="18" t="n"/>
-      <c r="P46" s="4" t="n"/>
-      <c r="Q46" s="167" t="n"/>
-      <c r="R46" s="167" t="n"/>
-      <c r="S46" s="168" t="n"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="19" t="inlineStr">
+      <c r="B27" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">    Please notify us immediately if you are unable to deliver as specified.</t>
         </is>
       </c>
-      <c r="C47" s="4" t="n"/>
-      <c r="D47" s="4" t="n"/>
-      <c r="E47" s="4" t="n"/>
-      <c r="F47" s="24" t="n"/>
-      <c r="G47" s="24" t="n"/>
-      <c r="H47" s="24" t="n"/>
-      <c r="I47" s="24" t="n"/>
-      <c r="J47" s="4" t="n"/>
-      <c r="K47" s="104" t="n"/>
-      <c r="L47" s="4" t="n"/>
-      <c r="P47" s="169" t="inlineStr">
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="24" t="n"/>
+      <c r="G27" s="24" t="n"/>
+      <c r="H27" s="24" t="n"/>
+      <c r="I27" s="24" t="n"/>
+      <c r="J27" s="4" t="n"/>
+      <c r="K27" s="104" t="n"/>
+      <c r="L27" s="4" t="n"/>
+      <c r="P27" s="171" t="inlineStr">
         <is>
           <t>订货日期 (ORDER DATE):</t>
         </is>
       </c>
-      <c r="Q47" s="165" t="n"/>
-      <c r="R47" s="120" t="n"/>
-      <c r="S47" s="120" t="n"/>
+      <c r="Q27" s="165" t="n"/>
+      <c r="R27" s="172" t="n"/>
+      <c r="S27" s="172" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/results/PO.xlsx
+++ b/results/PO.xlsx
@@ -1512,7 +1512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
@@ -2132,240 +2132,504 @@
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="B18" s="154" t="inlineStr">
+      <c r="B18" s="149" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C18" s="155" t="n">
+      <c r="C18" s="150" t="n">
         <v>1000</v>
       </c>
-      <c r="D18" s="156" t="n"/>
-      <c r="E18" s="155" t="inlineStr">
+      <c r="D18" s="151" t="n"/>
+      <c r="E18" s="150" t="inlineStr">
         <is>
           <t>22002</t>
         </is>
       </c>
-      <c r="F18" s="155" t="inlineStr">
+      <c r="F18" s="150" t="inlineStr">
         <is>
           <t>22003</t>
         </is>
       </c>
-      <c r="G18" s="155" t="inlineStr"/>
-      <c r="H18" s="156" t="n"/>
-      <c r="I18" s="156" t="n"/>
-      <c r="J18" s="155" t="inlineStr">
+      <c r="G18" s="150" t="inlineStr"/>
+      <c r="H18" s="151" t="n"/>
+      <c r="I18" s="151" t="n"/>
+      <c r="J18" s="150" t="inlineStr">
         <is>
           <t>INSERT</t>
         </is>
       </c>
-      <c r="K18" s="155" t="inlineStr">
+      <c r="K18" s="150" t="inlineStr">
         <is>
           <t>DI</t>
         </is>
       </c>
-      <c r="L18" s="155" t="inlineStr">
+      <c r="L18" s="150" t="inlineStr">
         <is>
           <t>Sea</t>
         </is>
       </c>
-      <c r="M18" s="157" t="n">
+      <c r="M18" s="152" t="n">
         <v>45533</v>
       </c>
-      <c r="N18" s="155" t="n"/>
-      <c r="O18" s="155" t="n"/>
-      <c r="P18" s="156" t="n"/>
-      <c r="Q18" s="155" t="n">
+      <c r="N18" s="150" t="n"/>
+      <c r="O18" s="150" t="n"/>
+      <c r="P18" s="151" t="n"/>
+      <c r="Q18" s="150" t="n">
         <v>13.26</v>
       </c>
-      <c r="R18" s="156" t="n"/>
-      <c r="S18" s="158" t="n">
+      <c r="R18" s="151" t="n"/>
+      <c r="S18" s="153" t="n">
         <v>13260</v>
       </c>
     </row>
-    <row r="19" ht="16" customHeight="1" thickBot="1">
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="14" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
-      <c r="G19" s="8" t="n"/>
-      <c r="H19" s="8" t="n"/>
-      <c r="I19" s="8" t="n"/>
-      <c r="J19" s="10" t="n"/>
-      <c r="K19" s="101" t="n"/>
-      <c r="L19" s="9" t="n"/>
-      <c r="M19" s="159" t="n"/>
-      <c r="N19" s="159" t="n"/>
-      <c r="O19" s="31" t="n"/>
-      <c r="P19" s="160" t="n"/>
-      <c r="Q19" s="160" t="n"/>
-      <c r="R19" s="160" t="n"/>
-      <c r="S19" s="161" t="n"/>
-    </row>
-    <row r="20" ht="16" customHeight="1" thickTop="1">
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="14" t="n"/>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
-      <c r="G20" s="8" t="n"/>
-      <c r="H20" s="8" t="n"/>
-      <c r="I20" s="8" t="n"/>
-      <c r="J20" s="10" t="n"/>
-      <c r="K20" s="101" t="n"/>
-      <c r="L20" s="9" t="n"/>
-      <c r="M20" s="159" t="n"/>
-      <c r="N20" s="159" t="n"/>
-      <c r="O20" s="31" t="n"/>
-      <c r="P20" s="160" t="n"/>
-      <c r="Q20" s="160" t="n"/>
-      <c r="R20" s="160" t="n"/>
-      <c r="S20" s="161" t="n"/>
-    </row>
-    <row r="21">
-      <c r="M21" s="17" t="n"/>
-      <c r="N21" s="33" t="n"/>
-      <c r="O21" s="33" t="n"/>
-      <c r="P21" s="79" t="inlineStr">
+    <row r="19" ht="20" customHeight="1" thickBot="1">
+      <c r="B19" s="149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" s="150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="151" t="n"/>
+      <c r="E19" s="150" t="inlineStr">
+        <is>
+          <t>22005</t>
+        </is>
+      </c>
+      <c r="F19" s="150" t="inlineStr">
+        <is>
+          <t>22005</t>
+        </is>
+      </c>
+      <c r="G19" s="150" t="inlineStr"/>
+      <c r="H19" s="151" t="n"/>
+      <c r="I19" s="151" t="n"/>
+      <c r="J19" s="150" t="inlineStr">
+        <is>
+          <t>PLUG</t>
+        </is>
+      </c>
+      <c r="K19" s="150" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="L19" s="150" t="inlineStr">
+        <is>
+          <t>Sea</t>
+        </is>
+      </c>
+      <c r="M19" s="152" t="n">
+        <v>45533</v>
+      </c>
+      <c r="N19" s="150" t="n"/>
+      <c r="O19" s="150" t="n"/>
+      <c r="P19" s="151" t="n"/>
+      <c r="Q19" s="150" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R19" s="151" t="n"/>
+      <c r="S19" s="153" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" thickTop="1">
+      <c r="B20" s="149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" s="150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="151" t="n"/>
+      <c r="E20" s="150" t="inlineStr">
+        <is>
+          <t>22005</t>
+        </is>
+      </c>
+      <c r="F20" s="150" t="inlineStr">
+        <is>
+          <t>22005</t>
+        </is>
+      </c>
+      <c r="G20" s="150" t="inlineStr"/>
+      <c r="H20" s="151" t="n"/>
+      <c r="I20" s="151" t="n"/>
+      <c r="J20" s="150" t="inlineStr">
+        <is>
+          <t>PLUG</t>
+        </is>
+      </c>
+      <c r="K20" s="150" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="L20" s="150" t="inlineStr">
+        <is>
+          <t>Sea</t>
+        </is>
+      </c>
+      <c r="M20" s="152" t="n">
+        <v>45533</v>
+      </c>
+      <c r="N20" s="150" t="n"/>
+      <c r="O20" s="150" t="n"/>
+      <c r="P20" s="151" t="n"/>
+      <c r="Q20" s="150" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R20" s="151" t="n"/>
+      <c r="S20" s="153" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="B21" s="149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" s="150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="151" t="n"/>
+      <c r="E21" s="150" t="inlineStr">
+        <is>
+          <t>22005</t>
+        </is>
+      </c>
+      <c r="F21" s="150" t="inlineStr">
+        <is>
+          <t>22005</t>
+        </is>
+      </c>
+      <c r="G21" s="150" t="inlineStr"/>
+      <c r="H21" s="151" t="n"/>
+      <c r="I21" s="151" t="n"/>
+      <c r="J21" s="150" t="inlineStr">
+        <is>
+          <t>PLUG</t>
+        </is>
+      </c>
+      <c r="K21" s="150" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="L21" s="150" t="inlineStr">
+        <is>
+          <t>Sea</t>
+        </is>
+      </c>
+      <c r="M21" s="152" t="n">
+        <v>45533</v>
+      </c>
+      <c r="N21" s="150" t="n"/>
+      <c r="O21" s="150" t="n"/>
+      <c r="P21" s="151" t="n"/>
+      <c r="Q21" s="150" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R21" s="151" t="n"/>
+      <c r="S21" s="153" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="B22" s="149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" s="150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="151" t="n"/>
+      <c r="E22" s="150" t="inlineStr">
+        <is>
+          <t>22005</t>
+        </is>
+      </c>
+      <c r="F22" s="150" t="inlineStr">
+        <is>
+          <t>22005</t>
+        </is>
+      </c>
+      <c r="G22" s="150" t="inlineStr"/>
+      <c r="H22" s="151" t="n"/>
+      <c r="I22" s="151" t="n"/>
+      <c r="J22" s="150" t="inlineStr">
+        <is>
+          <t>PLUG</t>
+        </is>
+      </c>
+      <c r="K22" s="150" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="L22" s="150" t="inlineStr">
+        <is>
+          <t>Sea</t>
+        </is>
+      </c>
+      <c r="M22" s="152" t="n">
+        <v>45533</v>
+      </c>
+      <c r="N22" s="150" t="n"/>
+      <c r="O22" s="150" t="n"/>
+      <c r="P22" s="151" t="n"/>
+      <c r="Q22" s="150" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R22" s="151" t="n"/>
+      <c r="S22" s="153" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customFormat="1" customHeight="1" s="2" thickBot="1">
+      <c r="B23" s="154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C23" s="155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="156" t="n"/>
+      <c r="E23" s="155" t="inlineStr">
+        <is>
+          <t>22005</t>
+        </is>
+      </c>
+      <c r="F23" s="155" t="inlineStr">
+        <is>
+          <t>22005</t>
+        </is>
+      </c>
+      <c r="G23" s="155" t="inlineStr"/>
+      <c r="H23" s="156" t="n"/>
+      <c r="I23" s="156" t="n"/>
+      <c r="J23" s="155" t="inlineStr">
+        <is>
+          <t>PLUG</t>
+        </is>
+      </c>
+      <c r="K23" s="155" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="L23" s="155" t="inlineStr">
+        <is>
+          <t>Sea</t>
+        </is>
+      </c>
+      <c r="M23" s="157" t="n">
+        <v>45533</v>
+      </c>
+      <c r="N23" s="155" t="n"/>
+      <c r="O23" s="155" t="n"/>
+      <c r="P23" s="156" t="n"/>
+      <c r="Q23" s="155" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R23" s="156" t="n"/>
+      <c r="S23" s="158" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" ht="16" customFormat="1" customHeight="1" s="2">
+      <c r="B24" s="13" t="n"/>
+      <c r="C24" s="14" t="n"/>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
+      <c r="G24" s="8" t="n"/>
+      <c r="H24" s="8" t="n"/>
+      <c r="I24" s="8" t="n"/>
+      <c r="J24" s="10" t="n"/>
+      <c r="K24" s="101" t="n"/>
+      <c r="L24" s="9" t="n"/>
+      <c r="M24" s="159" t="n"/>
+      <c r="N24" s="159" t="n"/>
+      <c r="O24" s="31" t="n"/>
+      <c r="P24" s="160" t="n"/>
+      <c r="Q24" s="160" t="n"/>
+      <c r="R24" s="160" t="n"/>
+      <c r="S24" s="161" t="n"/>
+    </row>
+    <row r="25" ht="14" customHeight="1">
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="14" t="n"/>
+      <c r="D25" s="9" t="n"/>
+      <c r="E25" s="15" t="n"/>
+      <c r="F25" s="15" t="n"/>
+      <c r="G25" s="8" t="n"/>
+      <c r="H25" s="8" t="n"/>
+      <c r="I25" s="8" t="n"/>
+      <c r="J25" s="10" t="n"/>
+      <c r="K25" s="101" t="n"/>
+      <c r="L25" s="9" t="n"/>
+      <c r="M25" s="159" t="n"/>
+      <c r="N25" s="159" t="n"/>
+      <c r="O25" s="31" t="n"/>
+      <c r="P25" s="160" t="n"/>
+      <c r="Q25" s="160" t="n"/>
+      <c r="R25" s="160" t="n"/>
+      <c r="S25" s="161" t="n"/>
+    </row>
+    <row r="26">
+      <c r="M26" s="17" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="79" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="Q21" s="36" t="inlineStr">
+      <c r="Q26" s="36" t="inlineStr">
         <is>
           <t>( TOTAL)</t>
         </is>
       </c>
-      <c r="R21" s="162" t="n"/>
-      <c r="S21" s="117" t="n"/>
-    </row>
-    <row r="22" ht="14" customHeight="1">
-      <c r="B22" s="85" t="inlineStr">
+      <c r="R26" s="162" t="n">
+        <v>28320</v>
+      </c>
+      <c r="S26" s="117" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="85" t="inlineStr">
         <is>
           <t>说明（NOTE）:</t>
         </is>
       </c>
-      <c r="C22" s="86" t="n"/>
-      <c r="D22" s="86" t="n"/>
-      <c r="E22" s="86" t="n"/>
-      <c r="F22" s="87" t="n"/>
-      <c r="G22" s="87" t="n"/>
-      <c r="H22" s="87" t="n"/>
-      <c r="I22" s="87" t="n"/>
-      <c r="J22" s="88" t="n"/>
-      <c r="K22" s="102" t="n"/>
-      <c r="L22" s="89" t="n"/>
-      <c r="M22" s="90" t="n"/>
-      <c r="N22" s="33" t="n"/>
-      <c r="O22" s="33" t="n"/>
-      <c r="P22" s="163" t="n"/>
-      <c r="Q22" s="43" t="n"/>
-      <c r="R22" s="43" t="n"/>
-      <c r="S22" s="44" t="n"/>
-    </row>
-    <row r="23" ht="14" customFormat="1" customHeight="1" s="2" thickBot="1">
-      <c r="B23" s="110" t="n"/>
-      <c r="C23" s="111" t="n"/>
-      <c r="D23" s="111" t="n"/>
-      <c r="E23" s="111" t="n"/>
-      <c r="F23" s="111" t="n"/>
-      <c r="G23" s="111" t="n"/>
-      <c r="H23" s="111" t="n"/>
-      <c r="I23" s="111" t="n"/>
-      <c r="J23" s="111" t="n"/>
-      <c r="K23" s="111" t="n"/>
-      <c r="L23" s="111" t="n"/>
-      <c r="M23" s="112" t="n"/>
-    </row>
-    <row r="24" ht="16" customFormat="1" customHeight="1" s="2">
-      <c r="B24" s="110" t="n"/>
-      <c r="C24" s="111" t="n"/>
-      <c r="D24" s="111" t="n"/>
-      <c r="E24" s="111" t="n"/>
-      <c r="F24" s="111" t="n"/>
-      <c r="G24" s="111" t="n"/>
-      <c r="H24" s="111" t="n"/>
-      <c r="I24" s="111" t="n"/>
-      <c r="J24" s="111" t="n"/>
-      <c r="K24" s="111" t="n"/>
-      <c r="L24" s="111" t="n"/>
-      <c r="M24" s="112" t="n"/>
-      <c r="P24" s="83" t="inlineStr">
+      <c r="C27" s="86" t="n"/>
+      <c r="D27" s="86" t="n"/>
+      <c r="E27" s="86" t="n"/>
+      <c r="F27" s="87" t="n"/>
+      <c r="G27" s="87" t="n"/>
+      <c r="H27" s="87" t="n"/>
+      <c r="I27" s="87" t="n"/>
+      <c r="J27" s="88" t="n"/>
+      <c r="K27" s="102" t="n"/>
+      <c r="L27" s="89" t="n"/>
+      <c r="M27" s="90" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="163" t="n"/>
+      <c r="Q27" s="43" t="n"/>
+      <c r="R27" s="43" t="n"/>
+      <c r="S27" s="44" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="110" t="n"/>
+      <c r="C28" s="111" t="n"/>
+      <c r="D28" s="111" t="n"/>
+      <c r="E28" s="111" t="n"/>
+      <c r="F28" s="111" t="n"/>
+      <c r="G28" s="111" t="n"/>
+      <c r="H28" s="111" t="n"/>
+      <c r="I28" s="111" t="n"/>
+      <c r="J28" s="111" t="n"/>
+      <c r="K28" s="111" t="n"/>
+      <c r="L28" s="111" t="n"/>
+      <c r="M28" s="112" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="110" t="n"/>
+      <c r="C29" s="111" t="n"/>
+      <c r="D29" s="111" t="n"/>
+      <c r="E29" s="111" t="n"/>
+      <c r="F29" s="111" t="n"/>
+      <c r="G29" s="111" t="n"/>
+      <c r="H29" s="111" t="n"/>
+      <c r="I29" s="111" t="n"/>
+      <c r="J29" s="111" t="n"/>
+      <c r="K29" s="111" t="n"/>
+      <c r="L29" s="111" t="n"/>
+      <c r="M29" s="112" t="n"/>
+      <c r="P29" s="83" t="inlineStr">
         <is>
           <t>订单签发人 (BY):</t>
         </is>
       </c>
-      <c r="Q24" s="164" t="n"/>
-      <c r="R24" s="165" t="inlineStr">
+      <c r="Q29" s="164" t="n"/>
+      <c r="R29" s="165" t="inlineStr">
         <is>
           <t>Tim Qi</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="14" customHeight="1">
-      <c r="B25" s="113" t="n"/>
-      <c r="C25" s="114" t="n"/>
-      <c r="D25" s="114" t="n"/>
-      <c r="E25" s="114" t="n"/>
-      <c r="F25" s="114" t="n"/>
-      <c r="G25" s="114" t="n"/>
-      <c r="H25" s="114" t="n"/>
-      <c r="I25" s="114" t="n"/>
-      <c r="J25" s="114" t="n"/>
-      <c r="K25" s="114" t="n"/>
-      <c r="L25" s="114" t="n"/>
-      <c r="M25" s="115" t="n"/>
-      <c r="N25" s="19" t="n"/>
-      <c r="O25" s="19" t="n"/>
-      <c r="Q25" s="166" t="n"/>
-      <c r="R25" s="167" t="n"/>
-      <c r="S25" s="168" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="24" t="n"/>
-      <c r="G26" s="24" t="n"/>
-      <c r="H26" s="24" t="n"/>
-      <c r="I26" s="24" t="n"/>
-      <c r="J26" s="4" t="n"/>
-      <c r="K26" s="103" t="n"/>
-      <c r="L26" s="18" t="n"/>
-      <c r="M26" s="18" t="n"/>
-      <c r="N26" s="18" t="n"/>
-      <c r="O26" s="18" t="n"/>
-      <c r="P26" s="4" t="n"/>
-      <c r="Q26" s="169" t="n"/>
-      <c r="R26" s="169" t="n"/>
-      <c r="S26" s="170" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="19" t="inlineStr">
+    <row r="30">
+      <c r="B30" s="113" t="n"/>
+      <c r="C30" s="114" t="n"/>
+      <c r="D30" s="114" t="n"/>
+      <c r="E30" s="114" t="n"/>
+      <c r="F30" s="114" t="n"/>
+      <c r="G30" s="114" t="n"/>
+      <c r="H30" s="114" t="n"/>
+      <c r="I30" s="114" t="n"/>
+      <c r="J30" s="114" t="n"/>
+      <c r="K30" s="114" t="n"/>
+      <c r="L30" s="114" t="n"/>
+      <c r="M30" s="115" t="n"/>
+      <c r="N30" s="19" t="n"/>
+      <c r="O30" s="19" t="n"/>
+      <c r="Q30" s="166" t="n"/>
+      <c r="R30" s="167" t="n"/>
+      <c r="S30" s="168" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="24" t="n"/>
+      <c r="G31" s="24" t="n"/>
+      <c r="H31" s="24" t="n"/>
+      <c r="I31" s="24" t="n"/>
+      <c r="J31" s="4" t="n"/>
+      <c r="K31" s="103" t="n"/>
+      <c r="L31" s="18" t="n"/>
+      <c r="M31" s="18" t="n"/>
+      <c r="N31" s="18" t="n"/>
+      <c r="O31" s="18" t="n"/>
+      <c r="P31" s="4" t="n"/>
+      <c r="Q31" s="169" t="n"/>
+      <c r="R31" s="169" t="n"/>
+      <c r="S31" s="170" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">    Please notify us immediately if you are unable to deliver as specified.</t>
         </is>
       </c>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="24" t="n"/>
-      <c r="G27" s="24" t="n"/>
-      <c r="H27" s="24" t="n"/>
-      <c r="I27" s="24" t="n"/>
-      <c r="J27" s="4" t="n"/>
-      <c r="K27" s="104" t="n"/>
-      <c r="L27" s="4" t="n"/>
-      <c r="P27" s="171" t="inlineStr">
+      <c r="C32" s="4" t="n"/>
+      <c r="D32" s="4" t="n"/>
+      <c r="E32" s="4" t="n"/>
+      <c r="F32" s="24" t="n"/>
+      <c r="G32" s="24" t="n"/>
+      <c r="H32" s="24" t="n"/>
+      <c r="I32" s="24" t="n"/>
+      <c r="J32" s="4" t="n"/>
+      <c r="K32" s="104" t="n"/>
+      <c r="L32" s="4" t="n"/>
+      <c r="P32" s="171" t="inlineStr">
         <is>
           <t>订货日期 (ORDER DATE):</t>
         </is>
       </c>
-      <c r="Q27" s="165" t="n"/>
-      <c r="R27" s="172" t="n"/>
-      <c r="S27" s="172" t="n"/>
+      <c r="Q32" s="165" t="n"/>
+      <c r="R32" s="172" t="n">
+        <v>45531</v>
+      </c>
+      <c r="S32" s="172" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
